--- a/data/31吨自卸车.xlsx
+++ b/data/31吨自卸车.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8DA7E6-65D9-0B42-904D-FBD6684F1B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB17ED-7D44-3942-B84B-2BF2D4B7FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
   <si>
     <t>单位</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>建筑垃圾</t>
+  </si>
+  <si>
+    <t>电池容量</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2141,40 +2144,40 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F14" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L14" s="4">
-        <v>5.69394277454363</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="7">
+        <v>420</v>
+      </c>
+      <c r="D14" s="7">
+        <v>420</v>
+      </c>
+      <c r="E14" s="7">
+        <v>420</v>
+      </c>
+      <c r="F14" s="7">
+        <v>420</v>
+      </c>
+      <c r="G14" s="7">
+        <v>420</v>
+      </c>
+      <c r="H14" s="7">
+        <v>420</v>
+      </c>
+      <c r="I14" s="7">
+        <v>420</v>
+      </c>
+      <c r="J14" s="7">
+        <v>420</v>
+      </c>
+      <c r="K14" s="7">
+        <v>420</v>
+      </c>
+      <c r="L14" s="7">
+        <v>420</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -2182,83 +2185,83 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
-        <v>2608.6956521739098</v>
+        <v>6.2111801242236</v>
       </c>
       <c r="D15" s="4">
-        <v>2582.6086956521799</v>
+        <v>6.1490683229813703</v>
       </c>
       <c r="E15" s="4">
-        <v>2557.04347826087</v>
+        <v>6.0881987577639798</v>
       </c>
       <c r="F15" s="4">
-        <v>2531.98434782609</v>
+        <v>6.02853416149068</v>
       </c>
       <c r="G15" s="4">
-        <v>2507.4162782608701</v>
+        <v>5.9700387577639704</v>
       </c>
       <c r="H15" s="4">
-        <v>2483.3248382608699</v>
+        <v>5.9126781863354001</v>
       </c>
       <c r="I15" s="4">
-        <v>2459.6961618782602</v>
+        <v>5.85641943304348</v>
       </c>
       <c r="J15" s="4">
-        <v>2436.51692084244</v>
+        <v>5.80123076391056</v>
       </c>
       <c r="K15" s="4">
-        <v>2413.7742985065202</v>
+        <v>5.7470816631107597</v>
       </c>
       <c r="L15" s="4">
-        <v>2391.4559653083202</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+        <v>5.69394277454363</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2608.6956521739098</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2582.6086956521799</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2557.04347826087</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2531.98434782609</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2507.4162782608701</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2483.3248382608699</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2459.6961618782602</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2436.51692084244</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2413.7742985065202</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2391.4559653083202</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2266,41 +2269,41 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12">
-        <v>250</v>
-      </c>
-      <c r="D17" s="12">
-        <v>250</v>
-      </c>
-      <c r="E17" s="12">
-        <v>250</v>
-      </c>
-      <c r="F17" s="12">
-        <v>250</v>
-      </c>
-      <c r="G17" s="12">
-        <v>250</v>
-      </c>
-      <c r="H17" s="12">
-        <v>250</v>
-      </c>
-      <c r="I17" s="12">
-        <v>250</v>
-      </c>
-      <c r="J17" s="12">
-        <v>250</v>
-      </c>
-      <c r="K17" s="12">
-        <v>250</v>
-      </c>
-      <c r="L17" s="12">
-        <v>250</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2309,191 +2312,233 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.56499999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12">
+        <v>250</v>
       </c>
       <c r="D18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="E18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="F18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="G18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="H18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="I18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="J18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="K18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="L18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>0.2</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:L19" si="2">C19</f>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:L20" si="2">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>5000</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" ref="D20:L20" si="3">C20</f>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:L21" si="3">C21</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:L21" si="4">C21</f>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:L22" si="4">C22</f>
         <v>2000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
@@ -2506,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3271,343 +3316,385 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+      <c r="H18" s="4">
+        <v>100</v>
+      </c>
+      <c r="I18" s="4">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+      <c r="K18" s="4">
+        <v>100</v>
+      </c>
+      <c r="L18" s="4">
+        <v>100</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="4">
         <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D19" s="4">
-        <v>614.90683229813703</v>
-      </c>
-      <c r="E19" s="4">
-        <v>608.81987577639802</v>
-      </c>
-      <c r="F19" s="4">
-        <v>602.85341614906804</v>
-      </c>
-      <c r="G19" s="4">
-        <v>597.00387577639697</v>
-      </c>
-      <c r="H19" s="4">
-        <v>591.26781863353995</v>
-      </c>
-      <c r="I19" s="4">
-        <v>585.64194330434805</v>
-      </c>
-      <c r="J19" s="4">
-        <v>580.12307639105597</v>
-      </c>
-      <c r="K19" s="4">
-        <v>574.70816631107596</v>
-      </c>
-      <c r="L19" s="4">
-        <v>569.39427745436296</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D20" s="4">
+        <v>614.90683229813703</v>
+      </c>
+      <c r="E20" s="4">
+        <v>608.81987577639802</v>
+      </c>
+      <c r="F20" s="4">
+        <v>602.85341614906804</v>
+      </c>
+      <c r="G20" s="4">
+        <v>597.00387577639697</v>
+      </c>
+      <c r="H20" s="4">
+        <v>591.26781863353995</v>
+      </c>
+      <c r="I20" s="4">
+        <v>585.64194330434805</v>
+      </c>
+      <c r="J20" s="4">
+        <v>580.12307639105597</v>
+      </c>
+      <c r="K20" s="4">
+        <v>574.70816631107596</v>
+      </c>
+      <c r="L20" s="4">
+        <v>569.39427745436296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="6">
         <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="12">
-        <v>500</v>
-      </c>
-      <c r="D21" s="12">
-        <v>500</v>
-      </c>
-      <c r="E21" s="12">
-        <v>500</v>
-      </c>
-      <c r="F21" s="12">
-        <v>500</v>
-      </c>
-      <c r="G21" s="12">
-        <v>500</v>
-      </c>
-      <c r="H21" s="12">
-        <v>500</v>
-      </c>
-      <c r="I21" s="12">
-        <v>500</v>
-      </c>
-      <c r="J21" s="12">
-        <v>500</v>
-      </c>
-      <c r="K21" s="12">
-        <v>500</v>
-      </c>
-      <c r="L21" s="12">
-        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12">
+        <v>500</v>
+      </c>
+      <c r="D22" s="12">
+        <v>500</v>
+      </c>
+      <c r="E22" s="12">
+        <v>500</v>
+      </c>
+      <c r="F22" s="12">
+        <v>500</v>
+      </c>
+      <c r="G22" s="12">
+        <v>500</v>
+      </c>
+      <c r="H22" s="12">
+        <v>500</v>
+      </c>
+      <c r="I22" s="12">
+        <v>500</v>
+      </c>
+      <c r="J22" s="12">
+        <v>500</v>
+      </c>
+      <c r="K22" s="12">
+        <v>500</v>
+      </c>
+      <c r="L22" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P23" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>0.2</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:L23" si="3">C23</f>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>5000</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" ref="D24:L24" si="4">C24</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="5">C25</f>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
